--- a/biology/Zoologie/Hibernie_orangée/Hibernie_orangée.xlsx
+++ b/biology/Zoologie/Hibernie_orangée/Hibernie_orangée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hibernie_orang%C3%A9e</t>
+          <t>Hibernie_orangée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agriopis aurantiaria
 L'Hibernie orangée, Agriopis aurantiaria, est un lépidoptère (papillon) de la famille des Geometridae, de la sous-famille des Ennominae, présent dans toute l'Europe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hibernie_orang%C3%A9e</t>
+          <t>Hibernie_orangée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Imago : d'une longueur de 10 à 15 mm, la femelle n'a pas d'ailes, mais un gros corps gris pâle. Le mâle, fréquemment de couleur orangée, est  ailé. Il arbore presque toujours deux lignes brunes au milieu des ailes supérieures. Son envergure peut atteindre 35 mm
 Chenille : la chenille est brunâtre, avec une ligne longitudinale noire. Plantes hôtes : Bouleau, Hêtre commun, Chêne, Saule et autres feuillus.</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hibernie_orang%C3%A9e</t>
+          <t>Hibernie_orangée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adulte est visible de septembre-octobre à décembre (univoltin). La femelle se tient sur un tronc et attire les mâles par un message odorant (phéromone) qu'elle émet grâce à une glande de son abdomen, puis pond ses œufs sur les arbres.
 L'espèce hiberne à l'état d'œufs qui éclosent au début du printemps.  La nymphose se passe sur le sol.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hibernie_orang%C3%A9e</t>
+          <t>Hibernie_orangée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution géographique
-On le rencontre dans toute l'Europe, de l'Espagne à la Scandinavie et jusqu'au Caucase.
-Biotope
-Ce papillon est présent dans une large gamme d'habitats : forêts de feuillus, parcs et jardins, vergers.
+          <t>Distribution géographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le rencontre dans toute l'Europe, de l'Espagne à la Scandinavie et jusqu'au Caucase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hibernie_orangée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibernie_orang%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution géographique et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon est présent dans une large gamme d'habitats : forêts de feuillus, parcs et jardins, vergers.
 </t>
         </is>
       </c>
